--- a/Web/obj/Release/Package/PackageTmp/Utils/student.xlsx
+++ b/Web/obj/Release/Package/PackageTmp/Utils/student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,22 @@
   </si>
   <si>
     <t>19201832917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分隔符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注:复制时从第二行开始复制,即只复制学生列表,不复制标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -48,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +74,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -84,9 +124,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,50 +440,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="14.25" style="1"/>
+    <col min="1" max="2" width="14.25" style="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
